--- a/MockUp.xlsx
+++ b/MockUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qbarkerp\Documents\GitHub\G200-SG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298648BC-6566-478B-A721-732B90542B9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101325D1-7A63-4113-AE62-2D6DC0CC4F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{2D6655EF-CECA-40CD-B9B4-12406B40AC0D}"/>
   </bookViews>
@@ -24,19 +24,517 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tooltip</author>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4662BA10-9C75-4794-8324-F3CB0E4146EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Shows the current week. There are 5 quarters, each with 10 weeks. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{9A5891CE-043B-45FA-9DEE-8AA39F4171D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same each day -- cannot exceed total alloted time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{A1BAF111-439A-4488-955C-B2CB2B029FC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each sleep cell takes 1 time point</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{67A9698C-2A3C-437C-91C4-39D2704045B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tooltip:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A measure of the effectiveness of your character -- more energy points are given if you are less stressed or more well-rested</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{699CE183-DAB3-4F50-ABB6-37223D58F293}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Amount of cold hard case remaining. Make sure you don't run out or you'll starve!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{7CBCF74E-79F5-4AFB-9A6C-EA6D74B265EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each food cell takes some money!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{51CBCA0D-7707-4B14-9385-063A87363A6C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If you run out of health, you die. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{96C59320-0644-4D76-820C-08822F6E3EF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each classwork cell takes time and energy!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{36D8C739-C8E9-49EF-9628-6ACF6F935592}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Stress level correlates to AP for next week. Higher stress means fewer T/E points</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{99BC5E05-C289-4521-8DE9-C9FC879AE2D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Academic performance. If it gets too low, you fail out of the program
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{A01AE6AD-3AC0-4DED-AE8B-6ADAD0A9491B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each networking cell takes time and energy!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{08BB9F57-5172-466C-A18E-AD11F1BE5DD9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Debt has a gradual effect on stress but reducing debt is an overall benefit to end score. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{053C4C74-30FD-4B85-807C-DF62F84756A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Debt has a gradual effect on stress but reducing debt is an overall benefit to end score. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{622B6986-2F71-4F53-9BC3-5DFB831D359D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each relaxation cell takes time but decreases stress!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{06AAA0B7-26B1-400E-8342-24F7AE67CF7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Each work cell takes time and energy but increases money!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{8E417EB7-9AD1-440D-960F-BB6F11C33D0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Due date uncertain: Extra stress for low performance this week!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{951FEA17-1B5A-49F0-8C6A-84906CAD634F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Social takes time and energy but lowers stress and slightly improves prospects!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>WEEK</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Time/Energy</t>
-  </si>
-  <si>
-    <t>Money</t>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Time (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money ($) </t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Sims: Existential Edition</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Assign points for next week:</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Classwork</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Prospects</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Relaxation</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Dev Notes:</t>
+  </si>
+  <si>
+    <t>in the last quarter, final projects are due soon and the</t>
+  </si>
+  <si>
+    <t>amount of necessary classwork increases</t>
+  </si>
+  <si>
+    <t>allow debt to rise if player runs out of money?</t>
+  </si>
+  <si>
+    <t>need to come up with some events</t>
+  </si>
+  <si>
+    <t>health-correlated expenses?</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>if social too low -&gt; performance suffers (group projects)</t>
+  </si>
+  <si>
+    <t>Pong?</t>
+  </si>
+  <si>
+    <t>friend asks you for help -&gt; improve social at time cost?</t>
   </si>
 </sst>
 </file>
@@ -46,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,29 +560,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="40"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -92,23 +644,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8585"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -416,47 +1183,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E904C-9ABD-414F-A2CE-3CD61CE9950F}">
-  <dimension ref="B2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E904C-9ABD-414F-A2CE-3CD61CE9950F}">
+  <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="51" x14ac:dyDescent="0.75">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="18"/>
+      <c r="P5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14000</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="18"/>
+      <c r="P7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>100</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="18"/>
+      <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="18"/>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>14000</v>
-      </c>
+      <c r="C12" s="16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="18"/>
+      <c r="P13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="18"/>
+      <c r="P15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MockUp.xlsx
+++ b/MockUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qbarkerp\Documents\GitHub\G200-SG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101325D1-7A63-4113-AE62-2D6DC0CC4F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC190E4-A24D-43D6-855A-B7B90B7BD877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{2D6655EF-CECA-40CD-B9B4-12406B40AC0D}"/>
   </bookViews>
@@ -416,6 +416,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{F41E5249-8072-4D5D-8A06-6871AF8D19AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tooltip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Can't sleep due to stress! No more than 3 sleep allocation allowed this week. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E17" authorId="0" shapeId="0" xr:uid="{951FEA17-1B5A-49F0-8C6A-84906CAD634F}">
       <text>
         <r>
@@ -445,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>WEEK</t>
   </si>
@@ -535,6 +559,9 @@
   </si>
   <si>
     <t>friend asks you for help -&gt; improve social at time cost?</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1214,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1388,7 +1415,9 @@
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="E17" s="14" t="s">
         <v>26</v>

--- a/MockUp.xlsx
+++ b/MockUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qbarkerp\Documents\GitHub\G200-SG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC190E4-A24D-43D6-855A-B7B90B7BD877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C391855-12D7-4F68-84FB-CD2021F83F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{2D6655EF-CECA-40CD-B9B4-12406B40AC0D}"/>
   </bookViews>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>WEEK</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Insomnia</t>
+  </si>
+  <si>
+    <t>(PH)</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -851,6 +854,28 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -860,7 +885,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -889,6 +914,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1211,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750E904C-9ABD-414F-A2CE-3CD61CE9950F}">
-  <dimension ref="B1:P20"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
@@ -1389,10 +1416,10 @@
     </row>
     <row r="14" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="25"/>
       <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1409,10 +1436,10 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
@@ -1431,17 +1458,43 @@
       <c r="L17" s="23"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
+      <c r="E19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MockUp.xlsx
+++ b/MockUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qbarkerp\Documents\GitHub\G200-SG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C391855-12D7-4F68-84FB-CD2021F83F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FA892C-C806-4DA0-A1C8-D0014278F01B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{2D6655EF-CECA-40CD-B9B4-12406B40AC0D}"/>
   </bookViews>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>WEEK</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>(PH)</t>
+  </si>
+  <si>
+    <t>Exercise</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -916,6 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1241,7 +1245,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
@@ -1466,12 +1470,12 @@
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="E19" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1491,7 +1495,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="18"/>
